--- a/biology/Médecine/Liste_de_musées_de_la_médecine/Liste_de_musées_de_la_médecine.xlsx
+++ b/biology/Médecine/Liste_de_musées_de_la_médecine/Liste_de_musées_de_la_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_m%C3%A9decine</t>
+          <t>Liste_de_musées_de_la_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici une liste de musées de la médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_m%C3%A9decine</t>
+          <t>Liste_de_musées_de_la_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Autriche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Memorial Château de Hartheim</t>
         </is>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_m%C3%A9decine</t>
+          <t>Liste_de_musées_de_la_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,11 +555,13 @@
           <t>Belgique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Musée de la médecine de Bruxelles
 Musée de l'Hôpital Notre-Dame à la Rose à Lessines
-Musée Lambotte à Anvers[1]</t>
+Musée Lambotte à Anvers</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_m%C3%A9decine</t>
+          <t>Liste_de_musées_de_la_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Danemark</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Medicinsk Museion (musée d'histoire de la médecine à Copenhague)</t>
         </is>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_m%C3%A9decine</t>
+          <t>Liste_de_musées_de_la_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,7 +621,9 @@
           <t>États-Unis</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chimborazo Medical Museum à Richmond</t>
         </is>
@@ -615,7 +635,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_de_la_m%C3%A9decine</t>
+          <t>Liste_de_musées_de_la_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,73 +655,114 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Paris
-Musée de l'Assistance Publique - Hôpitaux de Paris[2], (75004)
-Musée du Service de Santé des armées[3], (75005)
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Musée de l'Assistance Publique - Hôpitaux de Paris, (75004)
+Musée du Service de Santé des armées, (75005)
 Musée de l’Institut Curie, (75005)
-Musée Dupuytren, Université Paris VI - Pierre et Marie Curie[4] (75006)
+Musée Dupuytren, Université Paris VI - Pierre et Marie Curie (75006)
 Musée d’Histoire de la Médecine, Université Paris-Cité (75006)
-Musée des Moulages[5], Hôpital Saint-Louis (AP-HP), (75010)[6]
+Musée des Moulages, Hôpital Saint-Louis (AP-HP), (75010)
 Musée de la Psychiatrie et des Neurosciences, Hôpital Saint-Anne (75014)
 Musée d'art et d'histoire de l'hôpital Saint-Anne, ex Musée Singer-Polignac, ou Centre d'étude de l'expression, Hôpital Saint-Anne (75014)
-Musée Louis Pasteur, Institut Pasteur (75015)
-Ailleurs
-Musée de l’Hôtel-Dieu[7], Château-Thierry (Aisne)
-Musée de l’Hôtel-Dieu,  Beaune[8] (Côte-d'Or)
-Musée d'histoire de la médecine, Hôtel-Dieu, Hautefort[9] (Dordogne)
+Musée Louis Pasteur, Institut Pasteur (75015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_musées_de_la_médecine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_mus%C3%A9es_de_la_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ailleurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Musée de l’Hôtel-Dieu, Château-Thierry (Aisne)
+Musée de l’Hôtel-Dieu,  Beaune (Côte-d'Or)
+Musée d'histoire de la médecine, Hôtel-Dieu, Hautefort (Dordogne)
 Musée de l'anesthésie-réanimation et des techniques médico-chirurgicales, Hôpital Saint-Jacques, Besançon (Doubs)
 Musée de l'écorché d'anatomie, Le Neubourg (Eure)
-Musées de l'Hôtel-Dieu Saint Jacques[10], Toulouse (Haute-Garonne) rassemblent :
+Musées de l'Hôtel-Dieu Saint Jacques, Toulouse (Haute-Garonne) rassemblent :
 Musée d’histoire de la médecine
 Musée des Instruments de médecine des Hôpitaux de Toulouse
 Faculté de Médecine, Montpellier (Hérault) rassemble :
-Droguier[11]
-Musée d'Anatomie[12]
-Salle des anciens musées Delmas-Orfila-Rouvière[13]
-Musée grenoblois des sciences médicales, Grenoble (Isère)[14]
-Musée hospitalier, Charlieu[15] (Loire)
-Musée Saint-Roch, Yssingeaux[16] (Haute-Loire)
-Musée des nourrices et des enfants de l'Assistance Publique[17], Alligny-en-Morvan (Nièvre)
+Droguier
+Musée d'Anatomie
+Salle des anciens musées Delmas-Orfila-Rouvière
+Musée grenoblois des sciences médicales, Grenoble (Isère)
+Musée hospitalier, Charlieu (Loire)
+Musée Saint-Roch, Yssingeaux (Haute-Loire)
+Musée des nourrices et des enfants de l'Assistance Publique, Alligny-en-Morvan (Nièvre)
 Musée de la chirurgie Pr Christian Cabrol, Cosne-Cours-Sur-Loire (Nièvre)
-Musée de l'hospice Comtesse, Lille (Nord)[18]
-Musée de l’École de médecine navale, Rochefort (Charente-Maritime)[19]
-Musée des Hospices civils de Lyon, Lyon (Rhône)[20]
+Musée de l'hospice Comtesse, Lille (Nord)
+Musée de l’École de médecine navale, Rochefort (Charente-Maritime)
+Musée des Hospices civils de Lyon, Lyon (Rhône)
 Musée Testut Latarjet d'anatomie et d'Histoire naturelle médicale, Université de Lyon (Rhône)
-La Ferme du Vinatier[21], Bron (Rhône)
+La Ferme du Vinatier, Bron (Rhône)
 L’Albarelle, Belleville (Rhône)
 Musée de l’Hôtel-Dieu, Louhans (Saône-et-Loire)
 Musée de l’Hôtel-Dieu – Musée Greuze, Tournus (Saône-et-Loire)
-Musée Flaubert et d’histoire de la médecine, Rouen (Seine-Maritime)[22]
-Musée des Technologies de santé, Rouen (Seine-Maritime)[23]
-Musée hospitalier de Tonnerre, Tonnerre (Yonne)[24]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_de_mus%C3%A9es_de_la_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+Musée Flaubert et d’histoire de la médecine, Rouen (Seine-Maritime)
+Musée des Technologies de santé, Rouen (Seine-Maritime)
+Musée hospitalier de Tonnerre, Tonnerre (Yonne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_musées_de_la_médecine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_de_mus%C3%A9es_de_la_m%C3%A9decine</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Suisse</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Musée d'histoire de la médecine de Zurich</t>
         </is>
